--- a/aero.xlsx
+++ b/aero.xlsx
@@ -1,72 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,15 +69,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -397,45 +365,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,31 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -1,41 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,14 +115,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -365,119 +412,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fruit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2020-06-20</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020-06-21</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-06-24</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>11.2</v>
+      </c>
+      <c r="D3">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10.95</v>
+      </c>
+      <c r="D4">
+        <v>234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>11.3</v>
+      </c>
+      <c r="D5">
+        <v>400.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10.5</v>
+      </c>
+      <c r="D6">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10.8</v>
+      </c>
+      <c r="D7">
+        <v>133.8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/PycharmProjects/MonkeyTrackerV2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05322A5C-D9DF-C143-A88A-7BBF98D1005F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -31,38 +37,53 @@
     <t>Fruit</t>
   </si>
   <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,17 +135,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,24 +504,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -461,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -478,16 +540,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10.95</v>
-      </c>
-      <c r="D4">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -495,33 +554,30 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>11.3</v>
+        <v>10.32</v>
       </c>
       <c r="D5">
-        <v>400.2</v>
+        <v>432.1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>10.5</v>
-      </c>
       <c r="D6">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -529,30 +585,109 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>133.8</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>401</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>401</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10.9</v>
+      </c>
+      <c r="D10">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>11.4</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10.1</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/PycharmProjects/MonkeyTrackerV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05322A5C-D9DF-C143-A88A-7BBF98D1005F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062D490-70EC-E84F-B01A-E75521429AC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -52,31 +52,10 @@
     <t>2020-07-02</t>
   </si>
   <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
   </si>
 </sst>
 </file>
@@ -479,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,8 +490,14 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -529,7 +514,7 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,8 +527,11 @@
       <c r="C4">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,7 +548,7 @@
         <v>432.1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -570,125 +558,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>10.34</v>
+      </c>
       <c r="D6">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>401</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10.9</v>
-      </c>
-      <c r="D10">
-        <v>234</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11.4</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>10.1</v>
-      </c>
-      <c r="D12">
-        <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>287</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/PycharmProjects/MonkeyTrackerV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062D490-70EC-E84F-B01A-E75521429AC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D5013-DA44-6B44-80C9-7126326FF302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
   </si>
   <si>
     <t>Yes</t>
@@ -114,12 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,7 +499,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -514,7 +516,7 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,7 +533,7 @@
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,7 +550,7 @@
         <v>432.1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,14 +567,25 @@
         <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>324.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aero.xlsx
+++ b/aero.xlsx
@@ -1,90 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10615"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/PycharmProjects/MonkeyTrackerV2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D5013-DA44-6B44-80C9-7126326FF302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,132 +469,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>197</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C5" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>432.1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C6" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>264</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>10.32</v>
-      </c>
-      <c r="D5">
-        <v>432.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>10.34</v>
-      </c>
-      <c r="D6">
-        <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>324.2</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>
